--- a/documentation/BudgetUpdated.xlsx
+++ b/documentation/BudgetUpdated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Princess/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F1801E0-2E10-2247-85A1-298F68C336EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC15EC6-897C-694A-8460-D169791A649E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="580" windowWidth="24480" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2060" yWindow="460" windowWidth="24480" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,22 +108,22 @@
     <t>https://www.sparkfun.com/products/116?_ga=2.161208638.2095878335.1537831851-1448490607.1536633859</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/product-detail/en/3m/929974-01-36-RK/929974E-01-36-ND/1094289</t>
-  </si>
-  <si>
-    <t>929974E-01-36-ND</t>
-  </si>
-  <si>
-    <t>DigiKey</t>
-  </si>
-  <si>
-    <t>Rectangular Connectors - Headers (Female Socket)</t>
-  </si>
-  <si>
     <t>Shipping and Hanlding</t>
   </si>
   <si>
     <t>Import Fee</t>
+  </si>
+  <si>
+    <t>BuyaPi</t>
+  </si>
+  <si>
+    <t>40 Pin GPIO Connector Header</t>
+  </si>
+  <si>
+    <t>https://www.buyapi.ca/product/40-pin-gpio-connector-header/</t>
+  </si>
+  <si>
+    <t>SKU: 412</t>
   </si>
 </sst>
 </file>
@@ -214,10 +214,10 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,7 +590,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3">
         <v>14.92</v>
@@ -624,34 +624,34 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="9">
-        <v>4.37</v>
+        <v>32</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1.95</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="9">
-        <v>0.56999999999999995</v>
+      <c r="E12" s="8">
+        <v>1.68</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="9">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E13" s="8">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.35">
       <c r="G14" s="5">
-        <v>12.94</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -727,10 +727,10 @@
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="8">
-        <v>86.44</v>
-      </c>
-      <c r="G22" s="8"/>
+      <c r="F22" s="9">
+        <v>88.13</v>
+      </c>
+      <c r="G22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documentation/BudgetUpdated.xlsx
+++ b/documentation/BudgetUpdated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Princess/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC15EC6-897C-694A-8460-D169791A649E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F038B906-7046-F74D-BFF9-B8AF7D92B692}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="460" windowWidth="24480" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="460" windowWidth="24480" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Description</t>
   </si>
@@ -114,16 +114,16 @@
     <t>Import Fee</t>
   </si>
   <si>
-    <t>BuyaPi</t>
-  </si>
-  <si>
-    <t>40 Pin GPIO Connector Header</t>
-  </si>
-  <si>
     <t>https://www.buyapi.ca/product/40-pin-gpio-connector-header/</t>
   </si>
   <si>
-    <t>SKU: 412</t>
+    <t>7 Pin Receptacle Socket</t>
+  </si>
+  <si>
+    <t>CONHD-000007</t>
+  </si>
+  <si>
+    <t>Creatron Inc.</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,16 +621,16 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1.95</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -638,20 +638,20 @@
         <v>10</v>
       </c>
       <c r="E12" s="8">
-        <v>1.68</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="8">
-        <v>11</v>
+      <c r="E13" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.35">
       <c r="G14" s="5">
-        <v>14.63</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
